--- a/9семестр/КИС/Практическая/1.xlsx
+++ b/9семестр/КИС/Практическая/1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="37">
   <si>
     <t>t. ч</t>
   </si>
@@ -523,6 +523,69 @@
   <si>
     <t>q</t>
   </si>
+  <si>
+    <t>№сх</t>
+  </si>
+  <si>
+    <t>Вероятность</t>
+  </si>
+  <si>
+    <t>Сх1</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Сх2</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Сх3</t>
+  </si>
+  <si>
+    <t>Сх4</t>
+  </si>
+  <si>
+    <t>Сх5</t>
+  </si>
+  <si>
+    <t>Сх6</t>
+  </si>
+  <si>
+    <t>Сх7</t>
+  </si>
+  <si>
+    <t>Сх8</t>
+  </si>
+  <si>
+    <t>СХ1</t>
+  </si>
+  <si>
+    <t>СХ2</t>
+  </si>
+  <si>
+    <t>СХ3</t>
+  </si>
+  <si>
+    <t>СХ4</t>
+  </si>
+  <si>
+    <t>СХ5</t>
+  </si>
+  <si>
+    <t>СХ6</t>
+  </si>
+  <si>
+    <t>СХ7</t>
+  </si>
+  <si>
+    <t>СХ8</t>
+  </si>
+  <si>
+    <t>РАССЧЕТ</t>
+  </si>
 </sst>
 </file>
 
@@ -531,12 +594,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000000000000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -570,7 +641,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -580,6 +651,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,24 +725,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -677,8 +764,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2004,16 +2089,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>292345</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>11723</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>159824</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>77984</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>733</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>87923</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>481124</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>154184</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2022,8 +2107,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11265145" y="6764948"/>
-          <a:ext cx="5804388" cy="1600200"/>
+          <a:off x="4450215" y="1693093"/>
+          <a:ext cx="5837518" cy="1600200"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="5600700" cy="1600200"/>
         </a:xfrm>
@@ -3299,6 +3384,8415 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>484532</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>226051</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>53837</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Полотно 557"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10178051" y="451338"/>
+          <a:ext cx="5822865" cy="1595422"/>
+          <a:chOff x="0" y="0"/>
+          <a:chExt cx="5600700" cy="1600200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Прямоугольник 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="5600700" cy="1600200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectangle 559"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="457415" y="114007"/>
+            <a:ext cx="454986" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Rectangle 560"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1599737" y="114007"/>
+            <a:ext cx="455796" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>4</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Rectangle 561"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1028981" y="685683"/>
+            <a:ext cx="456605" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Rectangle 562"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="457415" y="1257359"/>
+            <a:ext cx="456605" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>3</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Rectangle 563"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1599737" y="1257359"/>
+            <a:ext cx="456605" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>5</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Rectangle 564"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2286264" y="685683"/>
+            <a:ext cx="455796" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>6</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Rectangle 565"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3086133" y="114007"/>
+            <a:ext cx="456605" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>7</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="Rectangle 566"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3086133" y="1257359"/>
+            <a:ext cx="456605" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>8</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Rectangle 567"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3886002" y="114007"/>
+            <a:ext cx="456605" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>9</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="Rectangle 568"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3886002" y="1257359"/>
+            <a:ext cx="482512" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>0</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="14" name="Line 569"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="914020" y="228834"/>
+            <a:ext cx="685717" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="15" name="Line 570"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="914020" y="1486193"/>
+            <a:ext cx="685717" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="16" name="Line 571"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3542738" y="228834"/>
+            <a:ext cx="343263" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="17" name="Line 572"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3542738" y="1486193"/>
+            <a:ext cx="343263" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="18" name="Line 573"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1257283" y="1028524"/>
+            <a:ext cx="0" cy="457669"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="19" name="Line 574"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="1257283" y="228834"/>
+            <a:ext cx="0" cy="456848"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="20" name="Line 575"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1828850" y="456848"/>
+            <a:ext cx="457415" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="21" name="Line 576"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="1828850" y="914518"/>
+            <a:ext cx="457415" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="22" name="Line 577"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipH="1">
+            <a:off x="2742870" y="456848"/>
+            <a:ext cx="571566" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="23" name="Line 578"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="2742870" y="914518"/>
+            <a:ext cx="571566" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="24" name="Line 579"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipH="1">
+            <a:off x="228303" y="228834"/>
+            <a:ext cx="229112" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="25" name="Line 580"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipH="1">
+            <a:off x="228303" y="1486193"/>
+            <a:ext cx="229112" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="26" name="Line 581"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="228303" y="228834"/>
+            <a:ext cx="0" cy="1257359"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="27" name="Line 582"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="114151" y="914517"/>
+            <a:ext cx="114151" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="28" name="Line 583"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4343417" y="228834"/>
+            <a:ext cx="228303" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="29" name="Line 584"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4343417" y="1486193"/>
+            <a:ext cx="228303" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="30" name="Line 585"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4571719" y="228834"/>
+            <a:ext cx="0" cy="1257359"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="31" name="Line 586"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4571719" y="799690"/>
+            <a:ext cx="228303" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="32" name="Line 587"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2057152" y="1486193"/>
+            <a:ext cx="1028981" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="33" name="Line 588"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2057152" y="228834"/>
+            <a:ext cx="1028981" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>487845</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>5799</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>235324</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>189379</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="34" name="Полотно 557"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9573230" y="2570222"/>
+          <a:ext cx="4004421" cy="1136080"/>
+          <a:chOff x="0" y="0"/>
+          <a:chExt cx="5600700" cy="1600200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="Прямоугольник 34"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="5600700" cy="1600200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="Rectangle 559"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="457415" y="114007"/>
+            <a:ext cx="454986" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="Rectangle 561"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1028981" y="685683"/>
+            <a:ext cx="456605" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="Rectangle 564"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2286264" y="685683"/>
+            <a:ext cx="455796" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>6</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="42" name="Rectangle 565"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3086133" y="114007"/>
+            <a:ext cx="456605" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>7</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="44" name="Rectangle 567"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3886002" y="114007"/>
+            <a:ext cx="456605" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>9</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="46" name="Line 569"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="914020" y="228834"/>
+            <a:ext cx="1334494" cy="10682"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="47" name="Line 570"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="914020" y="1486192"/>
+            <a:ext cx="1385731" cy="12385"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="48" name="Line 571"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3542738" y="228834"/>
+            <a:ext cx="343263" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="49" name="Line 572"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3542737" y="1486192"/>
+            <a:ext cx="837287" cy="22705"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="50" name="Line 573"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1257283" y="1028524"/>
+            <a:ext cx="0" cy="457669"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="51" name="Line 574"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="1257283" y="228834"/>
+            <a:ext cx="0" cy="456848"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="52" name="Line 575"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1541425" y="239516"/>
+            <a:ext cx="744840" cy="560173"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="53" name="Line 576"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="1551673" y="914518"/>
+            <a:ext cx="734592" cy="594380"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="54" name="Line 577"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipH="1">
+            <a:off x="2742870" y="456848"/>
+            <a:ext cx="571566" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="55" name="Line 578"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="2742870" y="914518"/>
+            <a:ext cx="930066" cy="573740"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="56" name="Line 579"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipH="1">
+            <a:off x="228303" y="228834"/>
+            <a:ext cx="229112" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="57" name="Line 580"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="228302" y="1486192"/>
+            <a:ext cx="780245" cy="12385"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="58" name="Line 581"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="228303" y="228834"/>
+            <a:ext cx="0" cy="1257359"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="59" name="Line 582"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="114151" y="914517"/>
+            <a:ext cx="114151" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="60" name="Line 583"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4343417" y="228834"/>
+            <a:ext cx="228303" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="61" name="Line 584"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4343417" y="1486193"/>
+            <a:ext cx="228303" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="62" name="Line 585"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4571719" y="228834"/>
+            <a:ext cx="0" cy="1257359"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="63" name="Line 586"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4571719" y="799690"/>
+            <a:ext cx="228303" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="64" name="Line 587"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2057151" y="1486192"/>
+            <a:ext cx="1677270" cy="2065"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="65" name="Line 588"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2057152" y="228834"/>
+            <a:ext cx="1028981" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>375201</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>201706</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>186018</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="98" name="Полотно 557"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="13109393" y="2573534"/>
+          <a:ext cx="4083448" cy="1129407"/>
+          <a:chOff x="0" y="0"/>
+          <a:chExt cx="5600700" cy="1600200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="99" name="Прямоугольник 98"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="5600700" cy="1600200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="100" name="Rectangle 559"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="457415" y="114007"/>
+            <a:ext cx="454986" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="102" name="Rectangle 561"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1028981" y="685683"/>
+            <a:ext cx="456605" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="105" name="Rectangle 564"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2286264" y="685683"/>
+            <a:ext cx="455796" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>6</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="106" name="Rectangle 565"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3086133" y="114007"/>
+            <a:ext cx="456605" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>7</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="108" name="Rectangle 567"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3886002" y="114007"/>
+            <a:ext cx="456605" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>9</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="110" name="Line 569"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="914020" y="225857"/>
+            <a:ext cx="1656513" cy="2977"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="111" name="Line 570"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="914020" y="1486193"/>
+            <a:ext cx="685717" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="112" name="Line 571"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3542738" y="228834"/>
+            <a:ext cx="343263" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="114" name="Line 573"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1257283" y="1028524"/>
+            <a:ext cx="0" cy="457669"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="115" name="Line 574"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="1257283" y="228834"/>
+            <a:ext cx="0" cy="456848"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="116" name="Line 575"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1475156" y="236238"/>
+            <a:ext cx="811109" cy="563450"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="117" name="Line 576"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="1515353" y="914518"/>
+            <a:ext cx="770911" cy="567458"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="118" name="Line 577"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipH="1">
+            <a:off x="2742870" y="456848"/>
+            <a:ext cx="571566" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="120" name="Line 579"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipH="1">
+            <a:off x="228303" y="228834"/>
+            <a:ext cx="229112" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="121" name="Line 580"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipH="1">
+            <a:off x="228306" y="1481977"/>
+            <a:ext cx="1357392" cy="4218"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="122" name="Line 581"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="228303" y="228834"/>
+            <a:ext cx="0" cy="1257359"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="123" name="Line 582"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="114151" y="914517"/>
+            <a:ext cx="114151" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="124" name="Line 583"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4343417" y="228834"/>
+            <a:ext cx="228303" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="125" name="Line 584"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4343417" y="1486193"/>
+            <a:ext cx="228303" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="126" name="Line 585"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4571719" y="228834"/>
+            <a:ext cx="0" cy="1257359"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="127" name="Line 586"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4571719" y="799690"/>
+            <a:ext cx="228303" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="129" name="Line 588"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2057152" y="228834"/>
+            <a:ext cx="1028981" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>397565</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>132522</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>67236</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="130" name="Полотно 557"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9482950" y="4411445"/>
+          <a:ext cx="3926613" cy="1111331"/>
+          <a:chOff x="0" y="0"/>
+          <a:chExt cx="5600700" cy="1600200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="131" name="Прямоугольник 130"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="5600700" cy="1600200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="132" name="Rectangle 559"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="457415" y="114007"/>
+            <a:ext cx="454986" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="134" name="Rectangle 561"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1028981" y="685683"/>
+            <a:ext cx="456605" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="137" name="Rectangle 564"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2286264" y="685683"/>
+            <a:ext cx="455796" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>6</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="138" name="Rectangle 565"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3086133" y="114007"/>
+            <a:ext cx="456605" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>7</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="140" name="Rectangle 567"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3886002" y="114007"/>
+            <a:ext cx="456605" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>9</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="142" name="Line 569"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="914020" y="228834"/>
+            <a:ext cx="1403311" cy="12899"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="143" name="Line 570"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="914020" y="1486193"/>
+            <a:ext cx="347790" cy="10989"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="144" name="Line 571"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3542738" y="228834"/>
+            <a:ext cx="343263" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="145" name="Line 572"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3542738" y="1486193"/>
+            <a:ext cx="1011045" cy="10989"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="146" name="Line 573"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1257283" y="1028524"/>
+            <a:ext cx="0" cy="457669"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="147" name="Line 574"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="1257283" y="228834"/>
+            <a:ext cx="0" cy="456848"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="148" name="Line 575"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1543979" y="210082"/>
+            <a:ext cx="742286" cy="589607"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="150" name="Line 577"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipH="1">
+            <a:off x="2742870" y="456848"/>
+            <a:ext cx="571566" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="151" name="Line 578"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="2742873" y="914521"/>
+            <a:ext cx="765840" cy="572112"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="152" name="Line 579"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipH="1">
+            <a:off x="228303" y="228834"/>
+            <a:ext cx="229112" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="153" name="Line 580"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="228305" y="1486193"/>
+            <a:ext cx="1064857" cy="439"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="154" name="Line 581"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="228303" y="228834"/>
+            <a:ext cx="0" cy="1257359"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="155" name="Line 582"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="114151" y="914517"/>
+            <a:ext cx="114151" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="156" name="Line 583"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4343417" y="228834"/>
+            <a:ext cx="228303" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="157" name="Line 584"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4343417" y="1486193"/>
+            <a:ext cx="228303" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="158" name="Line 585"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4571719" y="228834"/>
+            <a:ext cx="0" cy="1257359"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="159" name="Line 586"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4571719" y="799690"/>
+            <a:ext cx="228303" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="161" name="Line 588"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2057152" y="228834"/>
+            <a:ext cx="1028981" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>458855</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>86140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>246529</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="162" name="Полотно 557"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="13193047" y="4365063"/>
+          <a:ext cx="4044617" cy="1157713"/>
+          <a:chOff x="0" y="0"/>
+          <a:chExt cx="5600700" cy="1600200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="163" name="Прямоугольник 162"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="5600700" cy="1600200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="164" name="Rectangle 559"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="457415" y="114007"/>
+            <a:ext cx="454986" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="165" name="Rectangle 560"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1599737" y="114007"/>
+            <a:ext cx="455796" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>4</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="166" name="Rectangle 561"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1028981" y="685683"/>
+            <a:ext cx="456605" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="169" name="Rectangle 564"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2286264" y="685683"/>
+            <a:ext cx="455796" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>6</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="170" name="Rectangle 565"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3086133" y="114007"/>
+            <a:ext cx="456605" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>7</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="172" name="Rectangle 567"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3886002" y="114007"/>
+            <a:ext cx="456605" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>9</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="174" name="Line 569"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="914020" y="228834"/>
+            <a:ext cx="685717" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="176" name="Line 571"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3542738" y="228834"/>
+            <a:ext cx="343263" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="178" name="Line 573"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1257283" y="1028524"/>
+            <a:ext cx="0" cy="457669"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="179" name="Line 574"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="1257283" y="228834"/>
+            <a:ext cx="0" cy="456848"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="180" name="Line 575"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1828850" y="456848"/>
+            <a:ext cx="457415" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="182" name="Line 577"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipH="1">
+            <a:off x="2742870" y="456848"/>
+            <a:ext cx="571566" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="184" name="Line 579"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipH="1">
+            <a:off x="228303" y="228834"/>
+            <a:ext cx="229112" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="185" name="Line 580"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="228303" y="1486193"/>
+            <a:ext cx="1023427" cy="4990"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="186" name="Line 581"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="228303" y="228834"/>
+            <a:ext cx="0" cy="1257359"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="187" name="Line 582"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="114151" y="914517"/>
+            <a:ext cx="114151" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="188" name="Line 583"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4343417" y="228834"/>
+            <a:ext cx="228303" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="189" name="Line 584"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4343417" y="1486193"/>
+            <a:ext cx="228303" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="190" name="Line 585"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4571719" y="228834"/>
+            <a:ext cx="0" cy="1257359"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="191" name="Line 586"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4571719" y="799690"/>
+            <a:ext cx="228303" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="193" name="Line 588"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2057152" y="228834"/>
+            <a:ext cx="1028981" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447261</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>115957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="194" name="Полотно 557"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9532646" y="7823880"/>
+          <a:ext cx="3910534" cy="1150308"/>
+          <a:chOff x="0" y="0"/>
+          <a:chExt cx="5600700" cy="1600200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="195" name="Прямоугольник 194"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="5600700" cy="1600200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="196" name="Rectangle 559"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="457415" y="114007"/>
+            <a:ext cx="454986" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="198" name="Rectangle 561"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1028981" y="685683"/>
+            <a:ext cx="456605" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="201" name="Rectangle 564"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2286264" y="685683"/>
+            <a:ext cx="455796" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>6</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="202" name="Rectangle 565"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3086133" y="114007"/>
+            <a:ext cx="456605" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>7</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="204" name="Rectangle 567"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3886002" y="114007"/>
+            <a:ext cx="456605" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>9</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="206" name="Line 569"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="914020" y="226007"/>
+            <a:ext cx="1478082" cy="2827"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="207" name="Line 570"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="1248291" y="1500074"/>
+            <a:ext cx="1133317" cy="10191"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="208" name="Line 571"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3542738" y="228834"/>
+            <a:ext cx="343263" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="209" name="Line 572"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3542738" y="1486193"/>
+            <a:ext cx="343263" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="210" name="Line 573"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1257283" y="1028524"/>
+            <a:ext cx="0" cy="457669"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="211" name="Line 574"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="1257283" y="228834"/>
+            <a:ext cx="0" cy="456848"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="212" name="Line 575"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1552609" y="246393"/>
+            <a:ext cx="733656" cy="553296"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="213" name="Line 576"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="1521127" y="914518"/>
+            <a:ext cx="765137" cy="565170"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="214" name="Line 577"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipH="1">
+            <a:off x="2742870" y="456848"/>
+            <a:ext cx="571566" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="215" name="Line 578"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="2742870" y="914518"/>
+            <a:ext cx="1685006" cy="575363"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="216" name="Line 579"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipH="1">
+            <a:off x="228303" y="228834"/>
+            <a:ext cx="229112" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="218" name="Line 581"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="228303" y="228834"/>
+            <a:ext cx="12595" cy="700458"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="219" name="Line 582"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="114151" y="914517"/>
+            <a:ext cx="114151" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="220" name="Line 583"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4343417" y="228834"/>
+            <a:ext cx="228303" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="221" name="Line 584"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4343417" y="1486193"/>
+            <a:ext cx="228303" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="222" name="Line 585"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4571719" y="228834"/>
+            <a:ext cx="0" cy="1257359"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="223" name="Line 586"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4571719" y="799690"/>
+            <a:ext cx="228303" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="224" name="Line 587"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2057153" y="1486193"/>
+            <a:ext cx="2528129" cy="13880"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="225" name="Line 588"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2057152" y="228834"/>
+            <a:ext cx="1028981" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>301486</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>127551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>78440</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>179293</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="226" name="Полотно 557"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="13035678" y="6120974"/>
+          <a:ext cx="4033897" cy="1194742"/>
+          <a:chOff x="0" y="0"/>
+          <a:chExt cx="5600700" cy="1600200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="227" name="Прямоугольник 226"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="5600700" cy="1600200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="228" name="Rectangle 559"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="457415" y="114007"/>
+            <a:ext cx="454986" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="230" name="Rectangle 561"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1028981" y="685683"/>
+            <a:ext cx="456605" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="233" name="Rectangle 564"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2286264" y="685683"/>
+            <a:ext cx="455796" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>6</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="234" name="Rectangle 565"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3086133" y="114007"/>
+            <a:ext cx="456605" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>7</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="236" name="Rectangle 567"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3886002" y="114007"/>
+            <a:ext cx="456605" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>9</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="238" name="Line 569"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="914020" y="221700"/>
+            <a:ext cx="406937" cy="7133"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="239" name="Line 570"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="914020" y="1486193"/>
+            <a:ext cx="685717" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="240" name="Line 571"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3542738" y="228834"/>
+            <a:ext cx="343263" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="242" name="Line 573"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1257283" y="1028524"/>
+            <a:ext cx="0" cy="457669"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="243" name="Line 574"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="1257283" y="228834"/>
+            <a:ext cx="0" cy="456848"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="245" name="Line 576"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="1656660" y="914518"/>
+            <a:ext cx="629606" cy="573117"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="246" name="Line 577"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipH="1">
+            <a:off x="2742870" y="456848"/>
+            <a:ext cx="571566" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="248" name="Line 579"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipH="1">
+            <a:off x="228303" y="228834"/>
+            <a:ext cx="229112" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="249" name="Line 580"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="228303" y="1486193"/>
+            <a:ext cx="1408011" cy="11256"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="250" name="Line 581"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="228303" y="228834"/>
+            <a:ext cx="0" cy="1257359"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="251" name="Line 582"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="114151" y="914517"/>
+            <a:ext cx="114151" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="252" name="Line 583"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4343417" y="228834"/>
+            <a:ext cx="228303" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="253" name="Line 584"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4343417" y="1486193"/>
+            <a:ext cx="228303" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="254" name="Line 585"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4571719" y="228834"/>
+            <a:ext cx="0" cy="1257359"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="255" name="Line 586"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4571719" y="799690"/>
+            <a:ext cx="228303" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>442292</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>61291</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="258" name="Полотно 557"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9527677" y="6245214"/>
+          <a:ext cx="3904297" cy="1160150"/>
+          <a:chOff x="0" y="0"/>
+          <a:chExt cx="5600700" cy="1600200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="259" name="Прямоугольник 258"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="5600700" cy="1600200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="260" name="Rectangle 559"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="457415" y="114007"/>
+            <a:ext cx="454986" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="262" name="Rectangle 561"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1028981" y="685683"/>
+            <a:ext cx="456605" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="265" name="Rectangle 564"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2286264" y="685683"/>
+            <a:ext cx="455796" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>6</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="266" name="Rectangle 565"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3086133" y="114007"/>
+            <a:ext cx="456605" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>7</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="268" name="Rectangle 567"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3886002" y="114007"/>
+            <a:ext cx="456605" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>9</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="270" name="Line 569"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="914020" y="228833"/>
+            <a:ext cx="343394" cy="20128"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="271" name="Line 570"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="914020" y="1481900"/>
+            <a:ext cx="1383928" cy="4294"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="272" name="Line 571"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3542738" y="228834"/>
+            <a:ext cx="343263" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="273" name="Line 572"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3542738" y="1486193"/>
+            <a:ext cx="343263" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="274" name="Line 573"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1257283" y="1028524"/>
+            <a:ext cx="0" cy="457669"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="275" name="Line 574"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="1257283" y="228834"/>
+            <a:ext cx="0" cy="456848"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="277" name="Line 576"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="1562217" y="914519"/>
+            <a:ext cx="724048" cy="577487"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="278" name="Line 577"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipH="1">
+            <a:off x="2742870" y="456848"/>
+            <a:ext cx="571566" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="280" name="Line 579"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipH="1">
+            <a:off x="228303" y="228834"/>
+            <a:ext cx="229112" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="281" name="Line 580"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipH="1">
+            <a:off x="228303" y="1471794"/>
+            <a:ext cx="924006" cy="14400"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="282" name="Line 581"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="228303" y="228834"/>
+            <a:ext cx="0" cy="1257359"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="283" name="Line 582"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="114151" y="914517"/>
+            <a:ext cx="114151" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="284" name="Line 583"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4343417" y="228834"/>
+            <a:ext cx="228303" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="285" name="Line 584"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4343417" y="1486193"/>
+            <a:ext cx="228303" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="286" name="Line 585"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4571719" y="228834"/>
+            <a:ext cx="0" cy="1257359"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="287" name="Line 586"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4571719" y="799690"/>
+            <a:ext cx="228303" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="288" name="Line 587"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2057152" y="1486194"/>
+            <a:ext cx="2426967" cy="5812"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>384312</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>53009</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="290" name="Полотно 557"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="13118504" y="7760932"/>
+          <a:ext cx="4007102" cy="1190844"/>
+          <a:chOff x="0" y="0"/>
+          <a:chExt cx="5600700" cy="1600200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="291" name="Прямоугольник 290"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="5600700" cy="1600200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="292" name="Rectangle 559"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="457415" y="114007"/>
+            <a:ext cx="454986" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="294" name="Rectangle 561"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1028981" y="685683"/>
+            <a:ext cx="456605" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="297" name="Rectangle 564"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2286264" y="685683"/>
+            <a:ext cx="455796" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>6</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="298" name="Rectangle 565"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3086133" y="114007"/>
+            <a:ext cx="456605" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>7</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="300" name="Rectangle 567"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3886002" y="114007"/>
+            <a:ext cx="456605" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>9</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="301" name="Rectangle 568"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3886002" y="1257359"/>
+            <a:ext cx="482512" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="107000"/>
+              </a:lnSpc>
+              <a:spcAft>
+                <a:spcPts val="800"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>0</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="302" name="Line 569"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="914020" y="228834"/>
+            <a:ext cx="310246" cy="5148"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="303" name="Line 570"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="914020" y="1486193"/>
+            <a:ext cx="685717" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="304" name="Line 571"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3542738" y="228834"/>
+            <a:ext cx="343263" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="306" name="Line 573"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1257283" y="1028524"/>
+            <a:ext cx="0" cy="457669"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="307" name="Line 574"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="1257283" y="228834"/>
+            <a:ext cx="0" cy="456848"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="308" name="Line 575"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1828850" y="456848"/>
+            <a:ext cx="457415" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="309" name="Line 576"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="1603175" y="914519"/>
+            <a:ext cx="683089" cy="589542"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="310" name="Line 577"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipH="1">
+            <a:off x="2742870" y="456848"/>
+            <a:ext cx="571566" cy="342841"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="312" name="Line 579"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipH="1">
+            <a:off x="228303" y="228834"/>
+            <a:ext cx="229112" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="313" name="Line 580"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipH="1">
+            <a:off x="228303" y="1486193"/>
+            <a:ext cx="229112" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="314" name="Line 581"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="228303" y="228834"/>
+            <a:ext cx="0" cy="1257359"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="315" name="Line 582"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="114151" y="914517"/>
+            <a:ext cx="114151" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="316" name="Line 583"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4343417" y="228834"/>
+            <a:ext cx="228303" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="317" name="Line 584"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4343417" y="1486193"/>
+            <a:ext cx="228303" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="318" name="Line 585"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4571719" y="228834"/>
+            <a:ext cx="0" cy="1257359"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="319" name="Line 586"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4571719" y="799690"/>
+            <a:ext cx="228303" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="321" name="Line 588"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2057152" y="228834"/>
+            <a:ext cx="1028981" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3569,8 +12063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3583,7 +12077,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -3618,7 +12112,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
+      <c r="A2" s="16"/>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
@@ -3766,12 +12260,12 @@
       <c r="K5" s="3"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -4086,14 +12580,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K5" sqref="A1:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -4128,7 +12622,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
+      <c r="A2" s="16"/>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
@@ -4276,12 +12770,12 @@
       <c r="K5" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -4676,17 +13170,17 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
+      <c r="A35" s="11"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -4710,12 +13204,611 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="7" max="7" width="38.42578125" customWidth="1"/>
+    <col min="8" max="9" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>700</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="6">
+        <f>EXP(1)^(-B5*$A$3)</f>
+        <v>0.86935823539880575</v>
+      </c>
+      <c r="C4" s="6">
+        <f t="shared" ref="C4:I4" si="0">EXP(1)^(-C5*$A$3)</f>
+        <v>0.81058424597018719</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" si="0"/>
+        <v>0.70468808971871344</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" si="0"/>
+        <v>0.90032452258626561</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" si="0"/>
+        <v>0.93239381990594816</v>
+      </c>
+      <c r="G4" s="6">
+        <f t="shared" si="0"/>
+        <v>0.93239381990594816</v>
+      </c>
+      <c r="H4" s="6">
+        <f t="shared" si="0"/>
+        <v>0.70468808971871344</v>
+      </c>
+      <c r="I4" s="6">
+        <f t="shared" si="0"/>
+        <v>0.86935823539880575</v>
+      </c>
+      <c r="J4" s="6">
+        <f>EXP(1)^(-J5*$A$3)</f>
+        <v>0.83945702076920736</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3">
+        <f>B3*10^-4</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" ref="C5:J5" si="1">C3*10^-4</f>
+        <v>3.0000000000000003E-4</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5000000000000001E-4</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="1"/>
+        <v>1E-4</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="1"/>
+        <v>1E-4</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>28</v>
+      </c>
+      <c r="S13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="13">
+        <v>3</v>
+      </c>
+      <c r="D19" s="13">
+        <v>4</v>
+      </c>
+      <c r="E19" s="13">
+        <v>5</v>
+      </c>
+      <c r="F19" s="13">
+        <v>8</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>1</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>2</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>3</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="15"/>
+      <c r="M22" t="s">
+        <v>30</v>
+      </c>
+      <c r="S22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>4</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <v>5</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>6</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="13"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>7</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="13"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
+        <v>8</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="13"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <v>9</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <v>10</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
+        <v>11</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>12</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="13"/>
+      <c r="H31" s="15"/>
+      <c r="M31" t="s">
+        <v>32</v>
+      </c>
+      <c r="S31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <v>13</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="15"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
+        <v>14</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="15"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
+        <v>15</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="H34" s="15"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
+        <v>16</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="13"/>
+      <c r="H35" s="15"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M40" t="s">
+        <v>34</v>
+      </c>
+      <c r="S40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>